--- a/importForm.xlsx
+++ b/importForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dannk\source\repos\Web_Store\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\VisualStudio2019\Project_Medical_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA1DAC-1CBB-4043-9515-3483DACFA8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D8D55-3F43-43C9-8FD2-64761224DFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{FF755E7F-ABB4-4506-810E-AACB91193058}"/>
+    <workbookView xWindow="7548" yWindow="2016" windowWidth="14652" windowHeight="7860" xr2:uid="{FF755E7F-ABB4-4506-810E-AACB91193058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tên</t>
   </si>
@@ -47,24 +47,6 @@
   <si>
     <t>Giá</t>
   </si>
-  <si>
-    <t>Lập Trình OOP</t>
-  </si>
-  <si>
-    <t>Lập Trình Java</t>
-  </si>
-  <si>
-    <t>Nguyễn Khoa Đảnh</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>Lập Trình Python</t>
-  </si>
-  <si>
-    <t>Chiến Công Phùng</t>
-  </si>
 </sst>
 </file>
 
@@ -74,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -419,17 +401,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,47 +425,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>100000</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>36526</v>
-      </c>
-      <c r="D3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>36526</v>
-      </c>
-      <c r="D4">
-        <v>100000</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
